--- a/ep/ep/export/flourish/Hungary_group_party.xlsx
+++ b/ep/ep/export/flourish/Hungary_group_party.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="42">
   <si>
     <t>name1</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Jobbik</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>DK</t>
@@ -113,13 +113,40 @@
   </si>
   <si>
     <t>LMP</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/hun.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/fidesz.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/mszp.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/independent.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/jobbik.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/rmdsz.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/dk.png</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/egyutt.jpg</t>
+  </si>
+  <si>
+    <t>https://szekelydata.csaladen.es/ep/ep/img/lmp.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +161,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,16 +202,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,6 +585,9 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E2">
         <v>0.893</v>
       </c>
@@ -574,6 +617,9 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E3">
         <v>0.732</v>
       </c>
@@ -603,6 +649,9 @@
       <c r="C4" t="s">
         <v>27</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E4">
         <v>0.778</v>
       </c>
@@ -632,6 +681,9 @@
       <c r="C5" t="s">
         <v>21</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E5">
         <v>0.732</v>
       </c>
@@ -652,6 +704,9 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -681,6 +736,9 @@
       <c r="C7" t="s">
         <v>26</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J7">
         <v>0.643</v>
       </c>
@@ -710,6 +768,9 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J8">
         <v>0.525</v>
       </c>
@@ -739,6 +800,9 @@
       <c r="C9" t="s">
         <v>27</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J9">
         <v>0.62</v>
       </c>
@@ -768,6 +832,9 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="O10">
         <v>0.673</v>
       </c>
@@ -782,6 +849,9 @@
       <c r="C11" t="s">
         <v>29</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J11">
         <v>0.602</v>
       </c>
@@ -808,6 +878,9 @@
       <c r="C12" t="s">
         <v>30</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="O12">
         <v>0.425</v>
       </c>
@@ -837,6 +910,9 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="J13">
         <v>0.525</v>
       </c>
@@ -866,6 +942,9 @@
       <c r="C14" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O14">
         <v>0.572</v>
       </c>
@@ -895,6 +974,9 @@
       <c r="C15" t="s">
         <v>26</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="J15">
         <v>0.496</v>
       </c>
@@ -939,6 +1021,9 @@
       <c r="C16" t="s">
         <v>28</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J16">
         <v>1</v>
       </c>
@@ -983,6 +1068,9 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O17">
         <v>0.59</v>
       </c>
@@ -1012,6 +1100,9 @@
       <c r="C18" t="s">
         <v>27</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="J18">
         <v>0.414</v>
       </c>
@@ -1056,6 +1147,9 @@
       <c r="C19" t="s">
         <v>29</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J19">
         <v>0.377</v>
       </c>
@@ -1082,6 +1176,9 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="O20">
         <v>0.857</v>
       </c>
@@ -1111,6 +1208,9 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E21">
         <v>0.831</v>
       </c>
@@ -1155,6 +1255,9 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O22">
         <v>0.577</v>
       </c>
@@ -1184,6 +1287,9 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E23">
         <v>0.954</v>
       </c>
@@ -1243,6 +1349,9 @@
       <c r="C24" t="s">
         <v>28</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J24">
         <v>0.491</v>
       </c>
@@ -1287,6 +1396,9 @@
       <c r="C25" t="s">
         <v>32</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O25">
         <v>0.5679999999999999</v>
       </c>
@@ -1316,6 +1428,9 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E26">
         <v>0.598</v>
       </c>
@@ -1375,6 +1490,9 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E27">
         <v>0.974</v>
       </c>
@@ -1404,6 +1522,9 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
+      <c r="D28" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J28">
         <v>0.991</v>
       </c>
@@ -1430,6 +1551,9 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="O29">
         <v>0.988</v>
       </c>
@@ -1459,6 +1583,9 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E30">
         <v>0.715</v>
       </c>
@@ -1503,6 +1630,9 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O31">
         <v>0.727</v>
       </c>
@@ -1532,6 +1662,9 @@
       <c r="C32" t="s">
         <v>26</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E32">
         <v>0.593</v>
       </c>
@@ -1591,6 +1724,9 @@
       <c r="C33" t="s">
         <v>28</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="J33">
         <v>0.414</v>
       </c>
@@ -1635,6 +1771,9 @@
       <c r="C34" t="s">
         <v>32</v>
       </c>
+      <c r="D34" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O34">
         <v>0.729</v>
       </c>
@@ -1664,6 +1803,9 @@
       <c r="C35" t="s">
         <v>27</v>
       </c>
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E35">
         <v>0.979</v>
       </c>
@@ -1723,6 +1865,9 @@
       <c r="C36" t="s">
         <v>21</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="E36">
         <v>0.976</v>
       </c>
@@ -1752,6 +1897,9 @@
       <c r="C37" t="s">
         <v>29</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="J37">
         <v>0.679</v>
       </c>
@@ -1778,6 +1926,9 @@
       <c r="C38" t="s">
         <v>30</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="O38">
         <v>0.715</v>
       </c>
@@ -1807,6 +1958,9 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="I39">
         <v>0.7</v>
       </c>
@@ -1824,6 +1978,9 @@
       <c r="C40" t="s">
         <v>31</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="O40">
         <v>1</v>
       </c>
@@ -1853,6 +2010,9 @@
       <c r="C41" t="s">
         <v>26</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="I41">
         <v>0.871</v>
       </c>
@@ -1888,6 +2048,9 @@
       <c r="C42" t="s">
         <v>28</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="O42">
         <v>0.581</v>
       </c>
@@ -1917,6 +2080,9 @@
       <c r="C43" t="s">
         <v>32</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="O43">
         <v>1</v>
       </c>
@@ -1946,6 +2112,9 @@
       <c r="C44" t="s">
         <v>27</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="I44">
         <v>0.829</v>
       </c>
@@ -1981,6 +2150,9 @@
       <c r="C45" t="s">
         <v>21</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="I45">
         <v>1</v>
       </c>
@@ -1995,6 +2167,52 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ep/ep/export/flourish/Hungary_group_party.xlsx
+++ b/ep/ep/export/flourish/Hungary_group_party.xlsx
@@ -79,16 +79,16 @@
     <t>ECR</t>
   </si>
   <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>Greens</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>PPE</t>
-  </si>
-  <si>
     <t>S&amp;D</t>
-  </si>
-  <si>
-    <t>Verts/ALE</t>
   </si>
   <si>
     <t>Egyéb</t>
@@ -679,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>36</v>
@@ -830,7 +830,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>36</v>
@@ -882,22 +882,22 @@
         <v>39</v>
       </c>
       <c r="O12">
-        <v>0.425</v>
+        <v>0.857</v>
       </c>
       <c r="P12">
-        <v>0.517</v>
+        <v>0.749</v>
       </c>
       <c r="Q12">
-        <v>0.536</v>
+        <v>0.752</v>
       </c>
       <c r="R12">
-        <v>0.522</v>
+        <v>0.746</v>
       </c>
       <c r="S12">
-        <v>0.459</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="T12">
-        <v>0.648</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -913,23 +913,38 @@
       <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E13">
+        <v>0.831</v>
+      </c>
+      <c r="F13">
+        <v>0.837</v>
+      </c>
+      <c r="G13">
+        <v>0.874</v>
+      </c>
+      <c r="H13">
+        <v>0.767</v>
+      </c>
+      <c r="I13">
+        <v>0.827</v>
+      </c>
       <c r="J13">
-        <v>0.525</v>
+        <v>0.783</v>
       </c>
       <c r="K13">
-        <v>0.48</v>
+        <v>0.665</v>
       </c>
       <c r="L13">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="M13">
-        <v>0.59</v>
+        <v>0.646</v>
       </c>
       <c r="N13">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="O13">
-        <v>0.499</v>
+        <v>0.676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -946,22 +961,22 @@
         <v>40</v>
       </c>
       <c r="O14">
-        <v>0.572</v>
+        <v>0.577</v>
       </c>
       <c r="P14">
-        <v>0.617</v>
+        <v>0.537</v>
       </c>
       <c r="Q14">
-        <v>0.631</v>
+        <v>0.528</v>
       </c>
       <c r="R14">
-        <v>0.609</v>
+        <v>0.579</v>
       </c>
       <c r="S14">
-        <v>0.517</v>
+        <v>0.499</v>
       </c>
       <c r="T14">
-        <v>0.6870000000000001</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -977,38 +992,53 @@
       <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E15">
+        <v>0.954</v>
+      </c>
+      <c r="F15">
+        <v>0.98</v>
+      </c>
+      <c r="G15">
+        <v>0.986</v>
+      </c>
+      <c r="H15">
+        <v>0.959</v>
+      </c>
+      <c r="I15">
+        <v>0.974</v>
+      </c>
       <c r="J15">
-        <v>0.496</v>
+        <v>0.981</v>
       </c>
       <c r="K15">
-        <v>0.585</v>
+        <v>0.98</v>
       </c>
       <c r="L15">
-        <v>0.664</v>
+        <v>0.985</v>
       </c>
       <c r="M15">
-        <v>0.853</v>
+        <v>0.984</v>
       </c>
       <c r="N15">
-        <v>0.667</v>
+        <v>0.979</v>
       </c>
       <c r="O15">
-        <v>0.554</v>
+        <v>0.977</v>
       </c>
       <c r="P15">
-        <v>0.475</v>
+        <v>0.986</v>
       </c>
       <c r="Q15">
-        <v>0.468</v>
+        <v>0.988</v>
       </c>
       <c r="R15">
-        <v>0.468</v>
+        <v>0.99</v>
       </c>
       <c r="S15">
-        <v>0.485</v>
+        <v>0.987</v>
       </c>
       <c r="T15">
-        <v>0.525</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1025,37 +1055,37 @@
         <v>37</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.491</v>
       </c>
       <c r="K16">
-        <v>0.975</v>
+        <v>0.583</v>
       </c>
       <c r="L16">
-        <v>0.984</v>
+        <v>0.663</v>
       </c>
       <c r="M16">
-        <v>0.888</v>
+        <v>0.852</v>
       </c>
       <c r="N16">
-        <v>0.866</v>
+        <v>0.667</v>
       </c>
       <c r="O16">
-        <v>0.865</v>
+        <v>0.556</v>
       </c>
       <c r="P16">
-        <v>0.99</v>
+        <v>0.475</v>
       </c>
       <c r="Q16">
-        <v>0.987</v>
+        <v>0.468</v>
       </c>
       <c r="R16">
-        <v>0.99</v>
+        <v>0.468</v>
       </c>
       <c r="S16">
-        <v>0.992</v>
+        <v>0.469</v>
       </c>
       <c r="T16">
-        <v>0.993</v>
+        <v>0.541</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1072,22 +1102,22 @@
         <v>41</v>
       </c>
       <c r="O17">
-        <v>0.59</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="P17">
-        <v>0.63</v>
+        <v>0.527</v>
       </c>
       <c r="Q17">
-        <v>0.635</v>
+        <v>0.537</v>
       </c>
       <c r="R17">
-        <v>0.59</v>
+        <v>0.542</v>
       </c>
       <c r="S17">
-        <v>0.504</v>
+        <v>0.514</v>
       </c>
       <c r="T17">
-        <v>0.6889999999999999</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1103,38 +1133,53 @@
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E18">
+        <v>0.598</v>
+      </c>
+      <c r="F18">
+        <v>0.583</v>
+      </c>
+      <c r="G18">
+        <v>0.747</v>
+      </c>
+      <c r="H18">
+        <v>0.611</v>
+      </c>
+      <c r="I18">
+        <v>0.761</v>
+      </c>
       <c r="J18">
-        <v>0.414</v>
+        <v>0.745</v>
       </c>
       <c r="K18">
-        <v>0.59</v>
+        <v>0.722</v>
       </c>
       <c r="L18">
-        <v>0.676</v>
+        <v>0.796</v>
       </c>
       <c r="M18">
-        <v>0.762</v>
+        <v>0.819</v>
       </c>
       <c r="N18">
-        <v>0.644</v>
+        <v>0.766</v>
       </c>
       <c r="O18">
-        <v>0.65</v>
+        <v>0.764</v>
       </c>
       <c r="P18">
-        <v>0.527</v>
+        <v>0.743</v>
       </c>
       <c r="Q18">
-        <v>0.542</v>
+        <v>0.745</v>
       </c>
       <c r="R18">
-        <v>0.507</v>
+        <v>0.738</v>
       </c>
       <c r="S18">
-        <v>0.5</v>
+        <v>0.715</v>
       </c>
       <c r="T18">
-        <v>0.626</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1145,25 +1190,28 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>0.974</v>
+      </c>
+      <c r="I19">
+        <v>0.871</v>
       </c>
       <c r="J19">
-        <v>0.377</v>
-      </c>
-      <c r="K19">
-        <v>0.544</v>
-      </c>
-      <c r="L19">
-        <v>0.658</v>
-      </c>
-      <c r="M19">
-        <v>0.837</v>
-      </c>
-      <c r="N19">
-        <v>0.672</v>
+        <v>0.961</v>
+      </c>
+      <c r="O19">
+        <v>0.979</v>
+      </c>
+      <c r="S19">
+        <v>0.527</v>
+      </c>
+      <c r="T19">
+        <v>0.512</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1171,31 +1219,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20">
-        <v>0.857</v>
-      </c>
-      <c r="P20">
-        <v>0.749</v>
-      </c>
-      <c r="Q20">
-        <v>0.752</v>
-      </c>
-      <c r="R20">
-        <v>0.746</v>
-      </c>
-      <c r="S20">
-        <v>0.6889999999999999</v>
-      </c>
-      <c r="T20">
-        <v>0.632</v>
+        <v>38</v>
+      </c>
+      <c r="J20">
+        <v>0.991</v>
+      </c>
+      <c r="K20">
+        <v>0.985</v>
+      </c>
+      <c r="L20">
+        <v>0.989</v>
+      </c>
+      <c r="M20">
+        <v>0.986</v>
+      </c>
+      <c r="N20">
+        <v>0.978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1206,43 +1251,28 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>0.831</v>
-      </c>
-      <c r="F21">
-        <v>0.837</v>
-      </c>
-      <c r="G21">
-        <v>0.874</v>
-      </c>
-      <c r="H21">
-        <v>0.767</v>
-      </c>
-      <c r="I21">
-        <v>0.827</v>
-      </c>
-      <c r="J21">
-        <v>0.783</v>
-      </c>
-      <c r="K21">
-        <v>0.665</v>
-      </c>
-      <c r="L21">
-        <v>0.53</v>
-      </c>
-      <c r="M21">
-        <v>0.646</v>
-      </c>
-      <c r="N21">
-        <v>0.55</v>
+        <v>39</v>
       </c>
       <c r="O21">
-        <v>0.676</v>
+        <v>0.715</v>
+      </c>
+      <c r="P21">
+        <v>0.762</v>
+      </c>
+      <c r="Q21">
+        <v>0.751</v>
+      </c>
+      <c r="R21">
+        <v>0.824</v>
+      </c>
+      <c r="S21">
+        <v>0.78</v>
+      </c>
+      <c r="T21">
+        <v>0.79</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1253,28 +1283,16 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22">
-        <v>0.577</v>
-      </c>
-      <c r="P22">
-        <v>0.537</v>
-      </c>
-      <c r="Q22">
-        <v>0.528</v>
-      </c>
-      <c r="R22">
-        <v>0.579</v>
-      </c>
-      <c r="S22">
-        <v>0.499</v>
-      </c>
-      <c r="T22">
-        <v>0.479</v>
+        <v>33</v>
+      </c>
+      <c r="I22">
+        <v>0.7</v>
+      </c>
+      <c r="J22">
+        <v>0.872</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1285,58 +1303,28 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23">
-        <v>0.954</v>
-      </c>
-      <c r="F23">
-        <v>0.98</v>
-      </c>
-      <c r="G23">
-        <v>0.986</v>
-      </c>
-      <c r="H23">
-        <v>0.959</v>
-      </c>
-      <c r="I23">
-        <v>0.974</v>
-      </c>
-      <c r="J23">
-        <v>0.981</v>
-      </c>
-      <c r="K23">
-        <v>0.98</v>
-      </c>
-      <c r="L23">
-        <v>0.985</v>
-      </c>
-      <c r="M23">
-        <v>0.984</v>
-      </c>
-      <c r="N23">
-        <v>0.979</v>
+        <v>40</v>
       </c>
       <c r="O23">
-        <v>0.977</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0.986</v>
+        <v>0.998</v>
       </c>
       <c r="Q23">
-        <v>0.988</v>
+        <v>0.997</v>
       </c>
       <c r="R23">
-        <v>0.99</v>
+        <v>0.997</v>
       </c>
       <c r="S23">
-        <v>0.987</v>
+        <v>0.995</v>
       </c>
       <c r="T23">
-        <v>0.993</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1347,43 +1335,34 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="I24">
+        <v>0.871</v>
       </c>
       <c r="J24">
-        <v>0.491</v>
-      </c>
-      <c r="K24">
-        <v>0.583</v>
-      </c>
-      <c r="L24">
-        <v>0.663</v>
-      </c>
-      <c r="M24">
-        <v>0.852</v>
-      </c>
-      <c r="N24">
-        <v>0.667</v>
+        <v>0.959</v>
       </c>
       <c r="O24">
-        <v>0.556</v>
+        <v>0.573</v>
       </c>
       <c r="P24">
-        <v>0.475</v>
+        <v>0.532</v>
       </c>
       <c r="Q24">
-        <v>0.468</v>
+        <v>0.532</v>
       </c>
       <c r="R24">
-        <v>0.468</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="S24">
-        <v>0.469</v>
+        <v>0.506</v>
       </c>
       <c r="T24">
-        <v>0.541</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1394,28 +1373,28 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="O25">
-        <v>0.5679999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="P25">
-        <v>0.527</v>
+        <v>0.622</v>
       </c>
       <c r="Q25">
-        <v>0.537</v>
+        <v>0.633</v>
       </c>
       <c r="R25">
-        <v>0.542</v>
+        <v>0.601</v>
       </c>
       <c r="S25">
-        <v>0.514</v>
+        <v>0.494</v>
       </c>
       <c r="T25">
-        <v>0.393</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1426,58 +1405,28 @@
         <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26">
-        <v>0.598</v>
-      </c>
-      <c r="F26">
-        <v>0.583</v>
-      </c>
-      <c r="G26">
-        <v>0.747</v>
-      </c>
-      <c r="H26">
-        <v>0.611</v>
-      </c>
-      <c r="I26">
-        <v>0.761</v>
-      </c>
-      <c r="J26">
-        <v>0.745</v>
-      </c>
-      <c r="K26">
-        <v>0.722</v>
-      </c>
-      <c r="L26">
-        <v>0.796</v>
-      </c>
-      <c r="M26">
-        <v>0.819</v>
-      </c>
-      <c r="N26">
-        <v>0.766</v>
+        <v>41</v>
       </c>
       <c r="O26">
-        <v>0.764</v>
+        <v>1</v>
       </c>
       <c r="P26">
-        <v>0.743</v>
+        <v>0.997</v>
       </c>
       <c r="Q26">
-        <v>0.745</v>
+        <v>0.997</v>
       </c>
       <c r="R26">
-        <v>0.738</v>
+        <v>0.997</v>
       </c>
       <c r="S26">
-        <v>0.715</v>
+        <v>0.994</v>
       </c>
       <c r="T26">
-        <v>0.6830000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1488,28 +1437,34 @@
         <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27">
-        <v>0.974</v>
+        <v>35</v>
       </c>
       <c r="I27">
-        <v>0.871</v>
+        <v>0.829</v>
       </c>
       <c r="J27">
-        <v>0.961</v>
+        <v>0.831</v>
       </c>
       <c r="O27">
-        <v>0.979</v>
+        <v>0.74</v>
+      </c>
+      <c r="P27">
+        <v>0.766</v>
+      </c>
+      <c r="Q27">
+        <v>0.751</v>
+      </c>
+      <c r="R27">
+        <v>0.8169999999999999</v>
       </c>
       <c r="S27">
-        <v>0.527</v>
+        <v>0.762</v>
       </c>
       <c r="T27">
-        <v>0.512</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1520,25 +1475,22 @@
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0.991</v>
-      </c>
-      <c r="K28">
-        <v>0.985</v>
-      </c>
-      <c r="L28">
-        <v>0.989</v>
-      </c>
-      <c r="M28">
-        <v>0.986</v>
-      </c>
-      <c r="N28">
-        <v>0.978</v>
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0.555</v>
+      </c>
+      <c r="T28">
+        <v>0.706</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1555,22 +1507,22 @@
         <v>39</v>
       </c>
       <c r="O29">
-        <v>0.988</v>
+        <v>0.425</v>
       </c>
       <c r="P29">
-        <v>0.985</v>
+        <v>0.517</v>
       </c>
       <c r="Q29">
-        <v>0.974</v>
+        <v>0.536</v>
       </c>
       <c r="R29">
-        <v>0.984</v>
+        <v>0.522</v>
       </c>
       <c r="S29">
-        <v>0.962</v>
+        <v>0.459</v>
       </c>
       <c r="T29">
-        <v>0.977</v>
+        <v>0.648</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1586,38 +1538,23 @@
       <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E30">
-        <v>0.715</v>
-      </c>
-      <c r="F30">
-        <v>0.634</v>
-      </c>
-      <c r="G30">
-        <v>0.783</v>
-      </c>
-      <c r="H30">
-        <v>0.716</v>
-      </c>
-      <c r="I30">
-        <v>0.754</v>
-      </c>
       <c r="J30">
-        <v>0.768</v>
+        <v>0.525</v>
       </c>
       <c r="K30">
-        <v>0.456</v>
+        <v>0.48</v>
       </c>
       <c r="L30">
-        <v>0.491</v>
+        <v>0.46</v>
       </c>
       <c r="M30">
-        <v>0.552</v>
+        <v>0.59</v>
       </c>
       <c r="N30">
+        <v>0.58</v>
+      </c>
+      <c r="O30">
         <v>0.499</v>
-      </c>
-      <c r="O30">
-        <v>0.545</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1634,22 +1571,22 @@
         <v>40</v>
       </c>
       <c r="O31">
-        <v>0.727</v>
+        <v>0.572</v>
       </c>
       <c r="P31">
-        <v>0.776</v>
+        <v>0.617</v>
       </c>
       <c r="Q31">
-        <v>0.736</v>
+        <v>0.631</v>
       </c>
       <c r="R31">
-        <v>0.824</v>
+        <v>0.609</v>
       </c>
       <c r="S31">
-        <v>0.766</v>
+        <v>0.517</v>
       </c>
       <c r="T31">
-        <v>0.824</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1665,53 +1602,38 @@
       <c r="D32" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
-        <v>0.593</v>
-      </c>
-      <c r="F32">
-        <v>0.583</v>
-      </c>
-      <c r="G32">
-        <v>0.747</v>
-      </c>
-      <c r="H32">
-        <v>0.604</v>
-      </c>
-      <c r="I32">
-        <v>0.761</v>
-      </c>
       <c r="J32">
-        <v>0.742</v>
+        <v>0.496</v>
       </c>
       <c r="K32">
-        <v>0.723</v>
+        <v>0.585</v>
       </c>
       <c r="L32">
-        <v>0.796</v>
+        <v>0.664</v>
       </c>
       <c r="M32">
-        <v>0.82</v>
+        <v>0.853</v>
       </c>
       <c r="N32">
-        <v>0.769</v>
+        <v>0.667</v>
       </c>
       <c r="O32">
-        <v>0.772</v>
+        <v>0.554</v>
       </c>
       <c r="P32">
-        <v>0.746</v>
+        <v>0.475</v>
       </c>
       <c r="Q32">
-        <v>0.749</v>
+        <v>0.468</v>
       </c>
       <c r="R32">
-        <v>0.742</v>
+        <v>0.468</v>
       </c>
       <c r="S32">
-        <v>0.701</v>
+        <v>0.485</v>
       </c>
       <c r="T32">
-        <v>0.651</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1728,37 +1650,37 @@
         <v>37</v>
       </c>
       <c r="J33">
-        <v>0.414</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>0.59</v>
+        <v>0.975</v>
       </c>
       <c r="L33">
-        <v>0.676</v>
+        <v>0.984</v>
       </c>
       <c r="M33">
-        <v>0.762</v>
+        <v>0.888</v>
       </c>
       <c r="N33">
-        <v>0.644</v>
+        <v>0.866</v>
       </c>
       <c r="O33">
-        <v>0.625</v>
+        <v>0.865</v>
       </c>
       <c r="P33">
-        <v>0.522</v>
+        <v>0.99</v>
       </c>
       <c r="Q33">
-        <v>0.539</v>
+        <v>0.987</v>
       </c>
       <c r="R33">
-        <v>0.515</v>
+        <v>0.99</v>
       </c>
       <c r="S33">
-        <v>0.455</v>
+        <v>0.992</v>
       </c>
       <c r="T33">
-        <v>0.654</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1775,22 +1697,22 @@
         <v>41</v>
       </c>
       <c r="O34">
-        <v>0.729</v>
+        <v>0.59</v>
       </c>
       <c r="P34">
-        <v>0.747</v>
+        <v>0.63</v>
       </c>
       <c r="Q34">
-        <v>0.77</v>
+        <v>0.635</v>
       </c>
       <c r="R34">
-        <v>0.8169999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="S34">
-        <v>0.778</v>
+        <v>0.504</v>
       </c>
       <c r="T34">
-        <v>0.763</v>
+        <v>0.6889999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1806,53 +1728,38 @@
       <c r="D35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E35">
-        <v>0.979</v>
-      </c>
-      <c r="F35">
-        <v>0.92</v>
-      </c>
-      <c r="G35">
-        <v>0.9419999999999999</v>
-      </c>
-      <c r="H35">
-        <v>0.926</v>
-      </c>
-      <c r="I35">
-        <v>0.964</v>
-      </c>
       <c r="J35">
-        <v>0.964</v>
+        <v>0.414</v>
       </c>
       <c r="K35">
-        <v>0.969</v>
+        <v>0.59</v>
       </c>
       <c r="L35">
-        <v>0.971</v>
+        <v>0.676</v>
       </c>
       <c r="M35">
-        <v>0.968</v>
+        <v>0.762</v>
       </c>
       <c r="N35">
-        <v>0.953</v>
+        <v>0.644</v>
       </c>
       <c r="O35">
-        <v>0.967</v>
+        <v>0.65</v>
       </c>
       <c r="P35">
-        <v>0.98</v>
+        <v>0.527</v>
       </c>
       <c r="Q35">
-        <v>0.972</v>
+        <v>0.542</v>
       </c>
       <c r="R35">
-        <v>0.979</v>
+        <v>0.507</v>
       </c>
       <c r="S35">
-        <v>0.951</v>
+        <v>0.5</v>
       </c>
       <c r="T35">
-        <v>0.957</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1863,28 +1770,25 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36">
-        <v>0.976</v>
-      </c>
-      <c r="I36">
-        <v>0.829</v>
+        <v>38</v>
       </c>
       <c r="J36">
-        <v>0.831</v>
-      </c>
-      <c r="O36">
-        <v>0.75</v>
-      </c>
-      <c r="S36">
-        <v>0.534</v>
-      </c>
-      <c r="T36">
-        <v>0.633</v>
+        <v>0.377</v>
+      </c>
+      <c r="K36">
+        <v>0.544</v>
+      </c>
+      <c r="L36">
+        <v>0.658</v>
+      </c>
+      <c r="M36">
+        <v>0.837</v>
+      </c>
+      <c r="N36">
+        <v>0.672</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1892,28 +1796,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37">
-        <v>0.679</v>
-      </c>
-      <c r="K37">
-        <v>0.701</v>
-      </c>
-      <c r="L37">
-        <v>0.797</v>
-      </c>
-      <c r="M37">
-        <v>0.805</v>
-      </c>
-      <c r="N37">
-        <v>0.726</v>
+        <v>39</v>
+      </c>
+      <c r="O37">
+        <v>0.988</v>
+      </c>
+      <c r="P37">
+        <v>0.985</v>
+      </c>
+      <c r="Q37">
+        <v>0.974</v>
+      </c>
+      <c r="R37">
+        <v>0.984</v>
+      </c>
+      <c r="S37">
+        <v>0.962</v>
+      </c>
+      <c r="T37">
+        <v>0.977</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1924,28 +1831,43 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>0.715</v>
+      </c>
+      <c r="F38">
+        <v>0.634</v>
+      </c>
+      <c r="G38">
+        <v>0.783</v>
+      </c>
+      <c r="H38">
+        <v>0.716</v>
+      </c>
+      <c r="I38">
+        <v>0.754</v>
+      </c>
+      <c r="J38">
+        <v>0.768</v>
+      </c>
+      <c r="K38">
+        <v>0.456</v>
+      </c>
+      <c r="L38">
+        <v>0.491</v>
+      </c>
+      <c r="M38">
+        <v>0.552</v>
+      </c>
+      <c r="N38">
+        <v>0.499</v>
       </c>
       <c r="O38">
-        <v>0.715</v>
-      </c>
-      <c r="P38">
-        <v>0.762</v>
-      </c>
-      <c r="Q38">
-        <v>0.751</v>
-      </c>
-      <c r="R38">
-        <v>0.824</v>
-      </c>
-      <c r="S38">
-        <v>0.78</v>
-      </c>
-      <c r="T38">
-        <v>0.79</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1956,16 +1878,28 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39">
-        <v>0.7</v>
-      </c>
-      <c r="J39">
-        <v>0.872</v>
+        <v>40</v>
+      </c>
+      <c r="O39">
+        <v>0.727</v>
+      </c>
+      <c r="P39">
+        <v>0.776</v>
+      </c>
+      <c r="Q39">
+        <v>0.736</v>
+      </c>
+      <c r="R39">
+        <v>0.824</v>
+      </c>
+      <c r="S39">
+        <v>0.766</v>
+      </c>
+      <c r="T39">
+        <v>0.824</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1976,28 +1910,58 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="E40">
+        <v>0.593</v>
+      </c>
+      <c r="F40">
+        <v>0.583</v>
+      </c>
+      <c r="G40">
+        <v>0.747</v>
+      </c>
+      <c r="H40">
+        <v>0.604</v>
+      </c>
+      <c r="I40">
+        <v>0.761</v>
+      </c>
+      <c r="J40">
+        <v>0.742</v>
+      </c>
+      <c r="K40">
+        <v>0.723</v>
+      </c>
+      <c r="L40">
+        <v>0.796</v>
+      </c>
+      <c r="M40">
+        <v>0.82</v>
+      </c>
+      <c r="N40">
+        <v>0.769</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0.772</v>
       </c>
       <c r="P40">
-        <v>0.998</v>
+        <v>0.746</v>
       </c>
       <c r="Q40">
-        <v>0.997</v>
+        <v>0.749</v>
       </c>
       <c r="R40">
-        <v>0.997</v>
+        <v>0.742</v>
       </c>
       <c r="S40">
-        <v>0.995</v>
+        <v>0.701</v>
       </c>
       <c r="T40">
-        <v>0.998</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2008,34 +1972,43 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41">
-        <v>0.871</v>
+        <v>37</v>
       </c>
       <c r="J41">
-        <v>0.959</v>
+        <v>0.414</v>
+      </c>
+      <c r="K41">
+        <v>0.59</v>
+      </c>
+      <c r="L41">
+        <v>0.676</v>
+      </c>
+      <c r="M41">
+        <v>0.762</v>
+      </c>
+      <c r="N41">
+        <v>0.644</v>
       </c>
       <c r="O41">
-        <v>0.573</v>
+        <v>0.625</v>
       </c>
       <c r="P41">
-        <v>0.532</v>
+        <v>0.522</v>
       </c>
       <c r="Q41">
-        <v>0.532</v>
+        <v>0.539</v>
       </c>
       <c r="R41">
-        <v>0.5639999999999999</v>
+        <v>0.515</v>
       </c>
       <c r="S41">
-        <v>0.506</v>
+        <v>0.455</v>
       </c>
       <c r="T41">
-        <v>0.442</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2046,28 +2019,28 @@
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O42">
-        <v>0.581</v>
+        <v>0.729</v>
       </c>
       <c r="P42">
-        <v>0.622</v>
+        <v>0.747</v>
       </c>
       <c r="Q42">
-        <v>0.633</v>
+        <v>0.77</v>
       </c>
       <c r="R42">
-        <v>0.601</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="S42">
-        <v>0.494</v>
+        <v>0.778</v>
       </c>
       <c r="T42">
-        <v>0.67</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2078,28 +2051,58 @@
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>0.979</v>
+      </c>
+      <c r="F43">
+        <v>0.92</v>
+      </c>
+      <c r="G43">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.926</v>
+      </c>
+      <c r="I43">
+        <v>0.964</v>
+      </c>
+      <c r="J43">
+        <v>0.964</v>
+      </c>
+      <c r="K43">
+        <v>0.969</v>
+      </c>
+      <c r="L43">
+        <v>0.971</v>
+      </c>
+      <c r="M43">
+        <v>0.968</v>
+      </c>
+      <c r="N43">
+        <v>0.953</v>
       </c>
       <c r="O43">
-        <v>1</v>
+        <v>0.967</v>
       </c>
       <c r="P43">
-        <v>0.997</v>
+        <v>0.98</v>
       </c>
       <c r="Q43">
-        <v>0.997</v>
+        <v>0.972</v>
       </c>
       <c r="R43">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
       <c r="S43">
-        <v>0.994</v>
+        <v>0.951</v>
       </c>
       <c r="T43">
-        <v>0.998</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2110,10 +2113,13 @@
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>0.976</v>
       </c>
       <c r="I44">
         <v>0.829</v>
@@ -2122,22 +2128,13 @@
         <v>0.831</v>
       </c>
       <c r="O44">
-        <v>0.74</v>
-      </c>
-      <c r="P44">
-        <v>0.766</v>
-      </c>
-      <c r="Q44">
-        <v>0.751</v>
-      </c>
-      <c r="R44">
-        <v>0.8169999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="S44">
-        <v>0.762</v>
+        <v>0.534</v>
       </c>
       <c r="T44">
-        <v>0.843</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2148,22 +2145,25 @@
         <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="S45">
-        <v>0.555</v>
-      </c>
-      <c r="T45">
-        <v>0.706</v>
+        <v>0.679</v>
+      </c>
+      <c r="K45">
+        <v>0.701</v>
+      </c>
+      <c r="L45">
+        <v>0.797</v>
+      </c>
+      <c r="M45">
+        <v>0.805</v>
+      </c>
+      <c r="N45">
+        <v>0.726</v>
       </c>
     </row>
   </sheetData>
